--- a/ind-pind.xlsx
+++ b/ind-pind.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devworks\ESE-10Y\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CF1A620-AB93-4D64-B5A7-F23AB6B58F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF7D4EC-A3FA-4CA5-A841-EBBC8CE12323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FFA4A1D6-FD89-4C77-939A-0FAF948D131A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>Contact Person</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Python Lead</t>
+  </si>
+  <si>
+    <t>Numerator</t>
   </si>
 </sst>
 </file>
@@ -656,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D28F6F-D600-4176-8F3E-B200FEF32DE2}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1147,6 +1150,23 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
